--- a/test_artifacts.xlsx
+++ b/test_artifacts.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13EC0D0-4A60-43AD-B94D-0962D341C01A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF7548C-D348-445B-86B0-FD8C1F193D8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="729" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="729" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test plan" sheetId="8" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="132">
   <si>
     <t>In Scope</t>
   </si>
@@ -258,9 +258,6 @@
     <t>TC-13</t>
   </si>
   <si>
-    <t>TC-14</t>
-  </si>
-  <si>
     <t>Добавление изображения пользователя</t>
   </si>
   <si>
@@ -381,18 +378,9 @@
     <t>Проверки редактирования персональных данных пользователя</t>
   </si>
   <si>
-    <t>TC-15</t>
-  </si>
-  <si>
     <t>Добавление нового курса</t>
   </si>
   <si>
-    <t>Удаление существующего курса</t>
-  </si>
-  <si>
-    <t>Обновление существующего курса</t>
-  </si>
-  <si>
     <t>Кликнуть кнопку "Администрирование"</t>
   </si>
   <si>
@@ -414,28 +402,9 @@
     <t>Заполнить поля раздела "Общее"</t>
   </si>
   <si>
-    <t>Заполнить поля раздела "Описание"</t>
-  </si>
-  <si>
-    <t>Заполнить поля раздела "Формат курса"</t>
-  </si>
-  <si>
-    <t>Заполнить поля раздела "Внешний вид"</t>
-  </si>
-  <si>
-    <t>Заполнить поля раздела "Файлы и загрузки"</t>
-  </si>
-  <si>
-    <t>Заполнить поля раздела "Отслеживание выполнения"</t>
-  </si>
-  <si>
     <t>Заполнить поля раздела "Группы"</t>
   </si>
   <si>
-    <t>Заполнить поля раздела "Переименование ролей
-"</t>
-  </si>
-  <si>
     <t>Заполнить поля раздела "Теги"</t>
   </si>
   <si>
@@ -446,39 +415,6 @@
   </si>
   <si>
     <t>Поля раздела заполнены</t>
-  </si>
-  <si>
-    <t>Кликнуть "Управление курсами и категориями"</t>
-  </si>
-  <si>
-    <t>В блоке "Разное" выбрать интересующий курс</t>
-  </si>
-  <si>
-    <t>Отображается страница для редактирования данных о курсах</t>
-  </si>
-  <si>
-    <t>Отображается страница для редактирования данных о выбранном курсе</t>
-  </si>
-  <si>
-    <t>В блоке выбранного курса кликнуть "Редактирование"</t>
-  </si>
-  <si>
-    <t>Ввести в обязательные поля значения, отличные от существующих</t>
-  </si>
-  <si>
-    <t>Обязательные поля обновлены</t>
-  </si>
-  <si>
-    <t>В блоке выбранного курса кликнуть "Удалить"</t>
-  </si>
-  <si>
-    <t>Отображается страница с окном подтверждения об удалении курса</t>
-  </si>
-  <si>
-    <t>Кликнуть "Удалить"</t>
-  </si>
-  <si>
-    <t>Отображается домашняя страница сайта</t>
   </si>
   <si>
     <t>Примечание</t>
@@ -1017,7 +953,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1084,116 +1020,8 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="7" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="5" xfId="19" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="23" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1210,10 +1038,121 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="5" xfId="19" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="7" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1221,12 +1160,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1513,7 +1446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C60988C-E785-4078-B4CF-0A65AA5E3337}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -1533,94 +1466,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="63"/>
       <c r="C1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28" t="s">
+      <c r="E1" s="65"/>
+      <c r="F1" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="13">
         <v>44409</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="30" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="13">
         <v>44469</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="59" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33" t="s">
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="35"/>
+      <c r="C5" s="46"/>
       <c r="D5" s="4">
         <v>1</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="60"/>
+      <c r="F5" s="56"/>
       <c r="G5" s="5">
         <v>1</v>
       </c>
@@ -1635,15 +1568,15 @@
       <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="35"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="46"/>
       <c r="D6" s="4">
         <v>2</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="37"/>
+      <c r="F6" s="54"/>
       <c r="G6" s="5">
         <v>2</v>
       </c>
@@ -1658,13 +1591,13 @@
       <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="35"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="4">
         <v>3</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="37"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="54"/>
       <c r="G7" s="5">
         <v>3</v>
       </c>
@@ -1675,96 +1608,96 @@
       <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="55" t="s">
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="39" t="s">
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="56">
+      <c r="B9" s="45"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="24">
         <v>1</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="57"/>
+      <c r="F9" s="35"/>
       <c r="G9" s="7">
         <v>1</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="40"/>
+      <c r="I9" s="48"/>
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="56">
+      <c r="B10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="24">
         <v>2</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="57"/>
+      <c r="F10" s="35"/>
       <c r="G10" s="7">
         <v>2</v>
       </c>
-      <c r="H10" s="41" t="s">
+      <c r="H10" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="42"/>
+      <c r="I10" s="50"/>
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="56">
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="24">
         <v>3</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="58"/>
+      <c r="F11" s="47"/>
       <c r="G11" s="7">
         <v>3</v>
       </c>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="56">
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="24">
         <v>4</v>
       </c>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
       <c r="G12" s="7">
         <v>4</v>
       </c>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -1772,28 +1705,28 @@
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
-      <c r="D13" s="56">
+      <c r="D13" s="24">
         <v>5</v>
       </c>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
       <c r="G13" s="7">
         <v>5</v>
       </c>
-      <c r="H13" s="41"/>
-      <c r="I13" s="42"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="50"/>
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="38" t="s">
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
       <c r="G14" s="43" t="s">
         <v>12</v>
       </c>
@@ -1804,104 +1737,104 @@
       <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="44"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="6">
         <v>1</v>
       </c>
-      <c r="E15" s="53"/>
-      <c r="F15" s="54"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="41"/>
       <c r="G15" s="8">
         <v>1</v>
       </c>
-      <c r="H15" s="52" t="s">
+      <c r="H15" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="45"/>
+      <c r="I15" s="42"/>
     </row>
     <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="44"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="6">
         <v>2</v>
       </c>
-      <c r="E16" s="53"/>
-      <c r="F16" s="54"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="41"/>
       <c r="G16" s="8">
         <v>2</v>
       </c>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
     </row>
     <row r="17" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>3</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="6">
         <v>3</v>
       </c>
-      <c r="E17" s="53"/>
-      <c r="F17" s="54"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="41"/>
       <c r="G17" s="8">
         <v>3</v>
       </c>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>4</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="6">
         <v>4</v>
       </c>
-      <c r="E18" s="53"/>
-      <c r="F18" s="54"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="41"/>
       <c r="G18" s="8">
         <v>4</v>
       </c>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
     </row>
     <row r="19" spans="1:9" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>5</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="48" t="s">
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="46" t="s">
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
     </row>
     <row r="20" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>6</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="9">
         <v>1</v>
       </c>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
       <c r="G20" s="10">
         <v>1</v>
       </c>
@@ -1916,13 +1849,13 @@
       <c r="A21" s="5">
         <v>7</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
       <c r="D21" s="9">
         <v>2</v>
       </c>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
       <c r="G21" s="10">
         <v>2</v>
       </c>
@@ -1937,13 +1870,13 @@
       <c r="A22" s="5">
         <v>8</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
       <c r="D22" s="9">
         <v>3</v>
       </c>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
       <c r="G22" s="10">
         <v>3</v>
       </c>
@@ -1958,13 +1891,13 @@
       <c r="A23" s="5">
         <v>9</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
       <c r="D23" s="9">
         <v>4</v>
       </c>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
       <c r="G23" s="10">
         <v>4</v>
       </c>
@@ -1979,13 +1912,13 @@
       <c r="A24" s="5">
         <v>10</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="9">
         <v>5</v>
       </c>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
       <c r="G24" s="10">
         <v>5</v>
       </c>
@@ -2000,13 +1933,13 @@
       <c r="A25" s="5">
         <v>11</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="9">
         <v>6</v>
       </c>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
       <c r="G25" s="10">
         <v>6</v>
       </c>
@@ -2015,6 +1948,58 @@
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="E13:F13"/>
@@ -2026,60 +2011,8 @@
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H15" r:id="rId1" xr:uid="{1A6BB819-77E4-4AC5-8ED4-D2BD98FF2BB8}"/>
@@ -2091,15 +2024,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95AE4D5D-04C3-49E8-9C92-AD81F13EDFEF}">
-  <dimension ref="A1:AB127"/>
+  <dimension ref="A1:AB100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="66"/>
+    <col min="1" max="1" width="9.140625" style="30"/>
     <col min="2" max="2" width="4.7109375" style="22" customWidth="1"/>
     <col min="3" max="4" width="50.7109375" style="23" customWidth="1"/>
     <col min="5" max="5" width="24.5703125" style="23" customWidth="1"/>
@@ -2108,58 +2041,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" s="73" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="AB1" s="61" t="s">
+      <c r="A1" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="AB1" s="25" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="45" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="64" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB2" s="62" t="s">
+      <c r="F2" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB2" s="26" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="66" t="s">
         <v>49</v>
       </c>
       <c r="B3" s="21"/>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="29" t="s">
         <v>58</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="21"/>
-      <c r="F3" s="69"/>
-      <c r="AB3" s="63" t="s">
+      <c r="F3" s="32"/>
+      <c r="AB3" s="27" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="50"/>
+      <c r="A4" s="67"/>
       <c r="B4" s="21">
         <v>1</v>
       </c>
@@ -2172,11 +2105,11 @@
       <c r="E4" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="69"/>
-      <c r="AB4" s="63"/>
+      <c r="F4" s="32"/>
+      <c r="AB4" s="27"/>
     </row>
     <row r="5" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="50"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="21">
         <v>2</v>
       </c>
@@ -2189,11 +2122,11 @@
       <c r="E5" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="69"/>
-      <c r="AB5" s="63"/>
+      <c r="F5" s="32"/>
+      <c r="AB5" s="27"/>
     </row>
     <row r="6" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="51"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="21">
         <v>3</v>
       </c>
@@ -2206,23 +2139,23 @@
       <c r="E6" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="69"/>
-      <c r="AB6" s="63"/>
+      <c r="F6" s="32"/>
+      <c r="AB6" s="27"/>
     </row>
     <row r="7" spans="1:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="66" t="s">
         <v>50</v>
       </c>
       <c r="B7" s="21"/>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="29" t="s">
         <v>46</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="21"/>
-      <c r="F7" s="69"/>
+      <c r="F7" s="32"/>
     </row>
     <row r="8" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="50"/>
+      <c r="A8" s="67"/>
       <c r="B8" s="21">
         <v>1</v>
       </c>
@@ -2235,10 +2168,10 @@
       <c r="E8" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="69"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="50"/>
+      <c r="A9" s="67"/>
       <c r="B9" s="21">
         <v>2</v>
       </c>
@@ -2251,22 +2184,22 @@
       <c r="E9" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="69"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="1:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="66" t="s">
         <v>51</v>
       </c>
       <c r="B10" s="21"/>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="29" t="s">
         <v>47</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="21"/>
-      <c r="F10" s="69"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="50"/>
+      <c r="A11" s="67"/>
       <c r="B11" s="21">
         <v>1</v>
       </c>
@@ -2279,10 +2212,10 @@
       <c r="E11" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="69"/>
+      <c r="F11" s="32"/>
     </row>
     <row r="12" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="50"/>
+      <c r="A12" s="67"/>
       <c r="B12" s="21">
         <v>2</v>
       </c>
@@ -2295,22 +2228,22 @@
       <c r="E12" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="69"/>
+      <c r="F12" s="32"/>
     </row>
     <row r="13" spans="1:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="66" t="s">
         <v>52</v>
       </c>
       <c r="B13" s="21"/>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="29" t="s">
         <v>48</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="21"/>
-      <c r="F13" s="69"/>
+      <c r="F13" s="32"/>
     </row>
     <row r="14" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="50"/>
+      <c r="A14" s="67"/>
       <c r="B14" s="21">
         <v>1</v>
       </c>
@@ -2323,10 +2256,10 @@
       <c r="E14" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="69"/>
+      <c r="F14" s="32"/>
     </row>
     <row r="15" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="50"/>
+      <c r="A15" s="67"/>
       <c r="B15" s="21">
         <v>2</v>
       </c>
@@ -2339,35 +2272,35 @@
       <c r="E15" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="69"/>
+      <c r="F15" s="32"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A16" s="70" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="72"/>
-      <c r="AB16" s="61" t="s">
+      <c r="A16" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="73"/>
+      <c r="AB16" s="25" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="66" t="s">
         <v>53</v>
       </c>
       <c r="B17" s="21"/>
-      <c r="C17" s="65" t="s">
-        <v>78</v>
+      <c r="C17" s="29" t="s">
+        <v>77</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="21"/>
-      <c r="F17" s="69"/>
+      <c r="F17" s="32"/>
     </row>
     <row r="18" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="50"/>
+      <c r="A18" s="67"/>
       <c r="B18" s="21">
         <v>1</v>
       </c>
@@ -2380,10 +2313,10 @@
       <c r="E18" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="69"/>
+      <c r="F18" s="32"/>
     </row>
     <row r="19" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="50"/>
+      <c r="A19" s="67"/>
       <c r="B19" s="21">
         <v>2</v>
       </c>
@@ -2396,143 +2329,143 @@
       <c r="E19" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="69"/>
+      <c r="F19" s="32"/>
     </row>
     <row r="20" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="50"/>
+      <c r="A20" s="67"/>
       <c r="B20" s="21">
         <v>3</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="69"/>
+      <c r="F20" s="32"/>
     </row>
     <row r="21" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="50"/>
+      <c r="A21" s="67"/>
       <c r="B21" s="21">
         <v>4</v>
       </c>
       <c r="C21" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="20" t="s">
-        <v>84</v>
-      </c>
       <c r="E21" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="69"/>
+      <c r="F21" s="32"/>
     </row>
     <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="50"/>
+      <c r="A22" s="67"/>
       <c r="B22" s="21">
         <v>5</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E22" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="69"/>
+      <c r="F22" s="32"/>
     </row>
     <row r="23" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="50"/>
+      <c r="A23" s="67"/>
       <c r="B23" s="21">
         <v>6</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E23" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="69"/>
+      <c r="F23" s="32"/>
     </row>
     <row r="24" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="50"/>
+      <c r="A24" s="67"/>
       <c r="B24" s="21">
         <v>7</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E24" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="69"/>
+      <c r="F24" s="32"/>
     </row>
     <row r="25" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="50"/>
+      <c r="A25" s="67"/>
       <c r="B25" s="21">
         <v>8</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E25" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="69"/>
+      <c r="F25" s="32"/>
     </row>
     <row r="26" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="50"/>
+      <c r="A26" s="67"/>
       <c r="B26" s="21">
         <v>9</v>
       </c>
       <c r="C26" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="20" t="s">
-        <v>90</v>
-      </c>
       <c r="E26" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="69"/>
+      <c r="F26" s="32"/>
     </row>
     <row r="27" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="50"/>
+      <c r="A27" s="67"/>
       <c r="B27" s="21">
         <v>10</v>
       </c>
       <c r="C27" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="20" t="s">
-        <v>92</v>
-      </c>
       <c r="E27" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="69"/>
+      <c r="F27" s="32"/>
     </row>
     <row r="28" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="51"/>
+      <c r="A28" s="68"/>
       <c r="B28" s="21">
         <v>11</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D28" s="20" t="s">
         <v>59</v>
@@ -2540,22 +2473,22 @@
       <c r="E28" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="69"/>
+      <c r="F28" s="32"/>
     </row>
     <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="66" t="s">
         <v>54</v>
       </c>
       <c r="B29" s="21"/>
-      <c r="C29" s="65" t="s">
+      <c r="C29" s="29" t="s">
         <v>68</v>
       </c>
       <c r="D29" s="20"/>
       <c r="E29" s="21"/>
-      <c r="F29" s="69"/>
+      <c r="F29" s="32"/>
     </row>
     <row r="30" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="50"/>
+      <c r="A30" s="67"/>
       <c r="B30" s="21">
         <v>1</v>
       </c>
@@ -2568,10 +2501,10 @@
       <c r="E30" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F30" s="69"/>
+      <c r="F30" s="32"/>
     </row>
     <row r="31" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="50"/>
+      <c r="A31" s="67"/>
       <c r="B31" s="21">
         <v>2</v>
       </c>
@@ -2584,79 +2517,79 @@
       <c r="E31" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="69"/>
+      <c r="F31" s="32"/>
     </row>
     <row r="32" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="50"/>
+      <c r="A32" s="67"/>
       <c r="B32" s="21">
         <v>3</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E32" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F32" s="69"/>
+      <c r="F32" s="32"/>
     </row>
     <row r="33" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="50"/>
+      <c r="A33" s="67"/>
       <c r="B33" s="21">
         <v>4</v>
       </c>
       <c r="C33" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="20" t="s">
-        <v>84</v>
-      </c>
       <c r="E33" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F33" s="69"/>
+      <c r="F33" s="32"/>
     </row>
     <row r="34" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="50"/>
+      <c r="A34" s="67"/>
       <c r="B34" s="21">
         <v>5</v>
       </c>
       <c r="C34" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="20" t="s">
-        <v>96</v>
-      </c>
       <c r="E34" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F34" s="69"/>
+      <c r="F34" s="32"/>
     </row>
     <row r="35" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="50"/>
+      <c r="A35" s="67"/>
       <c r="B35" s="21">
         <v>6</v>
       </c>
       <c r="C35" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="20" t="s">
-        <v>92</v>
-      </c>
       <c r="E35" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="69"/>
+      <c r="F35" s="32"/>
     </row>
     <row r="36" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="51"/>
+      <c r="A36" s="68"/>
       <c r="B36" s="21">
         <v>7</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D36" s="20" t="s">
         <v>59</v>
@@ -2664,22 +2597,22 @@
       <c r="E36" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F36" s="69"/>
+      <c r="F36" s="32"/>
     </row>
     <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="A37" s="49" t="s">
+      <c r="A37" s="66" t="s">
         <v>55</v>
       </c>
       <c r="B37" s="21"/>
-      <c r="C37" s="65" t="s">
+      <c r="C37" s="29" t="s">
         <v>69</v>
       </c>
       <c r="D37" s="20"/>
       <c r="E37" s="21"/>
-      <c r="F37" s="69"/>
+      <c r="F37" s="32"/>
     </row>
     <row r="38" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="50"/>
+      <c r="A38" s="67"/>
       <c r="B38" s="21">
         <v>1</v>
       </c>
@@ -2692,10 +2625,10 @@
       <c r="E38" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F38" s="69"/>
+      <c r="F38" s="32"/>
     </row>
     <row r="39" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="50"/>
+      <c r="A39" s="67"/>
       <c r="B39" s="21">
         <v>2</v>
       </c>
@@ -2708,79 +2641,79 @@
       <c r="E39" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F39" s="69"/>
+      <c r="F39" s="32"/>
     </row>
     <row r="40" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="50"/>
+      <c r="A40" s="67"/>
       <c r="B40" s="21">
         <v>3</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E40" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F40" s="69"/>
+      <c r="F40" s="32"/>
     </row>
     <row r="41" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="50"/>
+      <c r="A41" s="67"/>
       <c r="B41" s="21">
         <v>4</v>
       </c>
       <c r="C41" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="20" t="s">
-        <v>84</v>
-      </c>
       <c r="E41" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F41" s="69"/>
+      <c r="F41" s="32"/>
     </row>
     <row r="42" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="50"/>
+      <c r="A42" s="67"/>
       <c r="B42" s="21">
         <v>5</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E42" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F42" s="69"/>
+      <c r="F42" s="32"/>
     </row>
     <row r="43" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="A43" s="50"/>
+      <c r="A43" s="67"/>
       <c r="B43" s="21">
         <v>6</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E43" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F43" s="69"/>
+      <c r="F43" s="32"/>
     </row>
     <row r="44" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="51"/>
+      <c r="A44" s="68"/>
       <c r="B44" s="21">
         <v>7</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D44" s="20" t="s">
         <v>59</v>
@@ -2788,22 +2721,22 @@
       <c r="E44" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F44" s="69"/>
+      <c r="F44" s="32"/>
     </row>
     <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="A45" s="49" t="s">
+      <c r="A45" s="66" t="s">
         <v>56</v>
       </c>
       <c r="B45" s="21"/>
-      <c r="C45" s="65" t="s">
+      <c r="C45" s="29" t="s">
         <v>70</v>
       </c>
       <c r="D45" s="20"/>
       <c r="E45" s="21"/>
-      <c r="F45" s="69"/>
+      <c r="F45" s="32"/>
     </row>
     <row r="46" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="50"/>
+      <c r="A46" s="67"/>
       <c r="B46" s="21">
         <v>1</v>
       </c>
@@ -2816,10 +2749,10 @@
       <c r="E46" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F46" s="69"/>
+      <c r="F46" s="32"/>
     </row>
     <row r="47" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="50"/>
+      <c r="A47" s="67"/>
       <c r="B47" s="21">
         <v>2</v>
       </c>
@@ -2832,97 +2765,97 @@
       <c r="E47" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F47" s="69"/>
+      <c r="F47" s="32"/>
     </row>
     <row r="48" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="50"/>
+      <c r="A48" s="67"/>
       <c r="B48" s="21">
         <v>3</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E48" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F48" s="69"/>
+      <c r="F48" s="32"/>
     </row>
     <row r="49" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="50"/>
+      <c r="A49" s="67"/>
       <c r="B49" s="21">
         <v>4</v>
       </c>
       <c r="C49" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="20" t="s">
-        <v>84</v>
-      </c>
       <c r="E49" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F49" s="69"/>
+      <c r="F49" s="32"/>
     </row>
     <row r="50" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="50"/>
+      <c r="A50" s="67"/>
       <c r="B50" s="21">
         <v>5</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E50" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F50" s="69"/>
+      <c r="F50" s="32"/>
     </row>
     <row r="51" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="50"/>
+      <c r="A51" s="67"/>
       <c r="B51" s="21">
         <v>6</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E51" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F51" s="69"/>
+      <c r="F51" s="32"/>
     </row>
     <row r="52" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="50"/>
+      <c r="A52" s="67"/>
       <c r="B52" s="21">
         <v>8</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E52" s="21" t="s">
         <v>44</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="51"/>
+      <c r="A53" s="68"/>
       <c r="B53" s="21">
         <v>9</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D53" s="20" t="s">
         <v>59</v>
@@ -2930,22 +2863,22 @@
       <c r="E53" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F53" s="69"/>
+      <c r="F53" s="32"/>
     </row>
     <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A54" s="49" t="s">
+      <c r="A54" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="B54" s="67"/>
-      <c r="C54" s="65" t="s">
-        <v>77</v>
+      <c r="B54" s="31"/>
+      <c r="C54" s="29" t="s">
+        <v>76</v>
       </c>
       <c r="D54" s="20"/>
       <c r="E54" s="21"/>
-      <c r="F54" s="69"/>
+      <c r="F54" s="32"/>
     </row>
     <row r="55" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="50"/>
+      <c r="A55" s="67"/>
       <c r="B55" s="21">
         <v>1</v>
       </c>
@@ -2958,10 +2891,10 @@
       <c r="E55" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F55" s="69"/>
+      <c r="F55" s="32"/>
     </row>
     <row r="56" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="50"/>
+      <c r="A56" s="67"/>
       <c r="B56" s="21">
         <v>2</v>
       </c>
@@ -2974,79 +2907,79 @@
       <c r="E56" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F56" s="69"/>
+      <c r="F56" s="32"/>
     </row>
     <row r="57" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="50"/>
+      <c r="A57" s="67"/>
       <c r="B57" s="21">
         <v>3</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E57" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F57" s="69"/>
+      <c r="F57" s="32"/>
     </row>
     <row r="58" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="50"/>
+      <c r="A58" s="67"/>
       <c r="B58" s="21">
         <v>4</v>
       </c>
       <c r="C58" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D58" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D58" s="20" t="s">
-        <v>84</v>
-      </c>
       <c r="E58" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F58" s="69"/>
+      <c r="F58" s="32"/>
     </row>
     <row r="59" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="50"/>
+      <c r="A59" s="67"/>
       <c r="B59" s="21">
         <v>5</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E59" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F59" s="69"/>
+      <c r="F59" s="32"/>
     </row>
     <row r="60" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="50"/>
+      <c r="A60" s="67"/>
       <c r="B60" s="21">
         <v>6</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E60" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F60" s="69"/>
+      <c r="F60" s="32"/>
     </row>
     <row r="61" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="51"/>
+      <c r="A61" s="68"/>
       <c r="B61" s="21">
         <v>7</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D61" s="20" t="s">
         <v>59</v>
@@ -3054,22 +2987,22 @@
       <c r="E61" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F61" s="69"/>
+      <c r="F61" s="32"/>
     </row>
     <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="A62" s="49" t="s">
+      <c r="A62" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="B62" s="67"/>
-      <c r="C62" s="65" t="s">
-        <v>79</v>
+      <c r="B62" s="31"/>
+      <c r="C62" s="29" t="s">
+        <v>78</v>
       </c>
       <c r="D62" s="20"/>
       <c r="E62" s="21"/>
-      <c r="F62" s="69"/>
+      <c r="F62" s="32"/>
     </row>
     <row r="63" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="50"/>
+      <c r="A63" s="67"/>
       <c r="B63" s="21">
         <v>1</v>
       </c>
@@ -3082,10 +3015,10 @@
       <c r="E63" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F63" s="69"/>
+      <c r="F63" s="32"/>
     </row>
     <row r="64" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="50"/>
+      <c r="A64" s="67"/>
       <c r="B64" s="21">
         <v>2</v>
       </c>
@@ -3098,95 +3031,95 @@
       <c r="E64" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F64" s="69"/>
+      <c r="F64" s="32"/>
     </row>
     <row r="65" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="50"/>
+      <c r="A65" s="67"/>
       <c r="B65" s="21">
         <v>3</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E65" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F65" s="69"/>
+      <c r="F65" s="32"/>
     </row>
     <row r="66" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="50"/>
+      <c r="A66" s="67"/>
       <c r="B66" s="21">
         <v>4</v>
       </c>
       <c r="C66" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D66" s="20" t="s">
-        <v>84</v>
-      </c>
       <c r="E66" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F66" s="69"/>
+      <c r="F66" s="32"/>
     </row>
     <row r="67" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="50"/>
+      <c r="A67" s="67"/>
       <c r="B67" s="21">
         <v>5</v>
       </c>
       <c r="C67" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D67" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="D67" s="20" t="s">
-        <v>107</v>
-      </c>
       <c r="E67" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F67" s="69"/>
+      <c r="F67" s="32"/>
     </row>
     <row r="68" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="50"/>
+      <c r="A68" s="67"/>
       <c r="B68" s="21">
         <v>6</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E68" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F68" s="69"/>
+      <c r="F68" s="32"/>
     </row>
     <row r="69" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="50"/>
+      <c r="A69" s="67"/>
       <c r="B69" s="21">
         <v>7</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E69" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F69" s="69"/>
+      <c r="F69" s="32"/>
     </row>
     <row r="70" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="51"/>
+      <c r="A70" s="68"/>
       <c r="B70" s="21">
         <v>8</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D70" s="20" t="s">
         <v>59</v>
@@ -3194,23 +3127,23 @@
       <c r="E70" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F70" s="69"/>
+      <c r="F70" s="32"/>
     </row>
     <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="A71" s="49" t="s">
+      <c r="A71" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="B71" s="67"/>
-      <c r="C71" s="65" t="s">
-        <v>80</v>
+      <c r="B71" s="31"/>
+      <c r="C71" s="29" t="s">
+        <v>79</v>
       </c>
       <c r="D71" s="20"/>
       <c r="E71" s="21"/>
-      <c r="F71" s="69"/>
+      <c r="F71" s="32"/>
     </row>
     <row r="72" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="50"/>
-      <c r="B72" s="67">
+      <c r="A72" s="67"/>
+      <c r="B72" s="31">
         <v>1</v>
       </c>
       <c r="C72" s="20" t="s">
@@ -3222,11 +3155,11 @@
       <c r="E72" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F72" s="69"/>
+      <c r="F72" s="32"/>
     </row>
     <row r="73" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="50"/>
-      <c r="B73" s="67">
+      <c r="A73" s="67"/>
+      <c r="B73" s="31">
         <v>2</v>
       </c>
       <c r="C73" s="20" t="s">
@@ -3238,95 +3171,95 @@
       <c r="E73" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F73" s="69"/>
+      <c r="F73" s="32"/>
     </row>
     <row r="74" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="50"/>
-      <c r="B74" s="67">
+      <c r="A74" s="67"/>
+      <c r="B74" s="31">
         <v>3</v>
       </c>
       <c r="C74" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E74" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" s="32"/>
+    </row>
+    <row r="75" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="67"/>
+      <c r="B75" s="31">
+        <v>4</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D75" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E75" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" s="32"/>
+    </row>
+    <row r="76" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A76" s="67"/>
+      <c r="B76" s="31">
+        <v>5</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E76" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" s="32"/>
+    </row>
+    <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A77" s="67"/>
+      <c r="B77" s="31">
+        <v>6</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D77" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E77" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" s="32"/>
+    </row>
+    <row r="78" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="67"/>
+      <c r="B78" s="31">
+        <v>7</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D78" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E78" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" s="32"/>
+    </row>
+    <row r="79" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="68"/>
+      <c r="B79" s="31">
+        <v>8</v>
+      </c>
+      <c r="C79" s="20" t="s">
         <v>93</v>
-      </c>
-      <c r="D74" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="E74" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F74" s="69"/>
-    </row>
-    <row r="75" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="50"/>
-      <c r="B75" s="67">
-        <v>4</v>
-      </c>
-      <c r="C75" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D75" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="E75" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F75" s="69"/>
-    </row>
-    <row r="76" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A76" s="50"/>
-      <c r="B76" s="67">
-        <v>5</v>
-      </c>
-      <c r="C76" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D76" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E76" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F76" s="69"/>
-    </row>
-    <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A77" s="50"/>
-      <c r="B77" s="67">
-        <v>6</v>
-      </c>
-      <c r="C77" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D77" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E77" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F77" s="69"/>
-    </row>
-    <row r="78" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="50"/>
-      <c r="B78" s="67">
-        <v>7</v>
-      </c>
-      <c r="C78" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D78" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="E78" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F78" s="69"/>
-    </row>
-    <row r="79" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="51"/>
-      <c r="B79" s="67">
-        <v>8</v>
-      </c>
-      <c r="C79" s="20" t="s">
-        <v>94</v>
       </c>
       <c r="D79" s="20" t="s">
         <v>59</v>
@@ -3334,23 +3267,23 @@
       <c r="E79" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F79" s="69"/>
+      <c r="F79" s="32"/>
     </row>
     <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="A80" s="49" t="s">
+      <c r="A80" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="B80" s="67"/>
-      <c r="C80" s="65" t="s">
-        <v>81</v>
+      <c r="B80" s="31"/>
+      <c r="C80" s="29" t="s">
+        <v>80</v>
       </c>
       <c r="D80" s="20"/>
       <c r="E80" s="21"/>
-      <c r="F80" s="69"/>
+      <c r="F80" s="32"/>
     </row>
     <row r="81" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="50"/>
-      <c r="B81" s="67">
+      <c r="A81" s="67"/>
+      <c r="B81" s="31">
         <v>1</v>
       </c>
       <c r="C81" s="20" t="s">
@@ -3362,11 +3295,11 @@
       <c r="E81" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F81" s="69"/>
+      <c r="F81" s="32"/>
     </row>
     <row r="82" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="50"/>
-      <c r="B82" s="67">
+      <c r="A82" s="67"/>
+      <c r="B82" s="31">
         <v>2</v>
       </c>
       <c r="C82" s="20" t="s">
@@ -3378,95 +3311,95 @@
       <c r="E82" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F82" s="69"/>
+      <c r="F82" s="32"/>
     </row>
     <row r="83" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="50"/>
-      <c r="B83" s="67">
+      <c r="A83" s="67"/>
+      <c r="B83" s="31">
         <v>3</v>
       </c>
       <c r="C83" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D83" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E83" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" s="32"/>
+    </row>
+    <row r="84" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="67"/>
+      <c r="B84" s="31">
+        <v>4</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D84" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E84" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" s="32"/>
+    </row>
+    <row r="85" spans="1:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="A85" s="67"/>
+      <c r="B85" s="31">
+        <v>5</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D85" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E85" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" s="32"/>
+    </row>
+    <row r="86" spans="1:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="A86" s="67"/>
+      <c r="B86" s="31">
+        <v>6</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D86" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E86" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" s="32"/>
+    </row>
+    <row r="87" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="67"/>
+      <c r="B87" s="31">
+        <v>7</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D87" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E87" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" s="32"/>
+    </row>
+    <row r="88" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="68"/>
+      <c r="B88" s="31">
+        <v>8</v>
+      </c>
+      <c r="C88" s="20" t="s">
         <v>93</v>
-      </c>
-      <c r="D83" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="E83" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F83" s="69"/>
-    </row>
-    <row r="84" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="50"/>
-      <c r="B84" s="67">
-        <v>4</v>
-      </c>
-      <c r="C84" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D84" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="E84" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F84" s="69"/>
-    </row>
-    <row r="85" spans="1:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="A85" s="50"/>
-      <c r="B85" s="67">
-        <v>5</v>
-      </c>
-      <c r="C85" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D85" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E85" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F85" s="69"/>
-    </row>
-    <row r="86" spans="1:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="A86" s="50"/>
-      <c r="B86" s="67">
-        <v>6</v>
-      </c>
-      <c r="C86" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D86" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E86" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F86" s="69"/>
-    </row>
-    <row r="87" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="50"/>
-      <c r="B87" s="67">
-        <v>7</v>
-      </c>
-      <c r="C87" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D87" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="E87" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F87" s="69"/>
-    </row>
-    <row r="88" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="51"/>
-      <c r="B88" s="67">
-        <v>8</v>
-      </c>
-      <c r="C88" s="20" t="s">
-        <v>94</v>
       </c>
       <c r="D88" s="20" t="s">
         <v>59</v>
@@ -3474,36 +3407,36 @@
       <c r="E88" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F88" s="69"/>
+      <c r="F88" s="32"/>
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A89" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="B89" s="71"/>
-      <c r="C89" s="71"/>
-      <c r="D89" s="71"/>
-      <c r="E89" s="71"/>
-      <c r="F89" s="72"/>
-      <c r="AB89" s="61" t="s">
+      <c r="A89" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="B89" s="72"/>
+      <c r="C89" s="72"/>
+      <c r="D89" s="72"/>
+      <c r="E89" s="72"/>
+      <c r="F89" s="73"/>
+      <c r="AB89" s="25" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="90" spans="1:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="A90" s="49" t="s">
+      <c r="A90" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="B90" s="67"/>
-      <c r="C90" s="65" t="s">
-        <v>118</v>
+      <c r="B90" s="31"/>
+      <c r="C90" s="29" t="s">
+        <v>116</v>
       </c>
       <c r="D90" s="20"/>
       <c r="E90" s="21"/>
-      <c r="F90" s="69"/>
+      <c r="F90" s="32"/>
     </row>
     <row r="91" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="50"/>
-      <c r="B91" s="67">
+      <c r="A91" s="67"/>
+      <c r="B91" s="31">
         <v>1</v>
       </c>
       <c r="C91" s="20" t="s">
@@ -3515,11 +3448,11 @@
       <c r="E91" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F91" s="69"/>
+      <c r="F91" s="32"/>
     </row>
     <row r="92" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="50"/>
-      <c r="B92" s="67">
+      <c r="A92" s="67"/>
+      <c r="B92" s="31">
         <v>2</v>
       </c>
       <c r="C92" s="20" t="s">
@@ -3531,565 +3464,141 @@
       <c r="E92" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F92" s="69"/>
+      <c r="F92" s="32"/>
     </row>
     <row r="93" spans="1:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="A93" s="50"/>
-      <c r="B93" s="67">
+      <c r="A93" s="67"/>
+      <c r="B93" s="31">
         <v>3</v>
       </c>
       <c r="C93" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D93" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="E93" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F93" s="32"/>
+    </row>
+    <row r="94" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A94" s="67"/>
+      <c r="B94" s="31">
+        <v>4</v>
+      </c>
+      <c r="C94" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D94" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E94" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F94" s="32"/>
+    </row>
+    <row r="95" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A95" s="67"/>
+      <c r="B95" s="31">
+        <v>5</v>
+      </c>
+      <c r="C95" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="D93" s="20" t="s">
+      <c r="D95" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="E93" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F93" s="69"/>
-    </row>
-    <row r="94" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A94" s="50"/>
-      <c r="B94" s="67">
-        <v>4</v>
-      </c>
-      <c r="C94" s="20" t="s">
+      <c r="E95" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F95" s="32"/>
+    </row>
+    <row r="96" spans="1:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="A96" s="67"/>
+      <c r="B96" s="31">
+        <v>6</v>
+      </c>
+      <c r="C96" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D94" s="20" t="s">
+      <c r="D96" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E96" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F96" s="32"/>
+    </row>
+    <row r="97" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A97" s="67"/>
+      <c r="B97" s="31">
+        <v>7</v>
+      </c>
+      <c r="C97" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="E94" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F94" s="69"/>
-    </row>
-    <row r="95" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A95" s="50"/>
-      <c r="B95" s="67">
-        <v>5</v>
-      </c>
-      <c r="C95" s="20" t="s">
+      <c r="D97" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E97" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F97" s="32"/>
+    </row>
+    <row r="98" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A98" s="67"/>
+      <c r="B98" s="31">
+        <v>8</v>
+      </c>
+      <c r="C98" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="D95" s="20" t="s">
+      <c r="D98" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E98" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F98" s="32"/>
+    </row>
+    <row r="99" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A99" s="67"/>
+      <c r="B99" s="31">
+        <v>9</v>
+      </c>
+      <c r="C99" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="E95" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F95" s="69"/>
-    </row>
-    <row r="96" spans="1:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="A96" s="50"/>
-      <c r="B96" s="67">
-        <v>6</v>
-      </c>
-      <c r="C96" s="20" t="s">
+      <c r="D99" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="D96" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="E96" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F96" s="69"/>
-    </row>
-    <row r="97" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A97" s="50"/>
-      <c r="B97" s="67">
-        <v>7</v>
-      </c>
-      <c r="C97" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D97" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="E97" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F97" s="69"/>
-    </row>
-    <row r="98" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A98" s="50"/>
-      <c r="B98" s="67">
-        <v>8</v>
-      </c>
-      <c r="C98" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="D98" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="E98" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F98" s="69"/>
-    </row>
-    <row r="99" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A99" s="50"/>
-      <c r="B99" s="67">
-        <v>9</v>
-      </c>
-      <c r="C99" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="D99" s="20" t="s">
-        <v>138</v>
-      </c>
       <c r="E99" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F99" s="69"/>
-    </row>
-    <row r="100" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A100" s="50"/>
-      <c r="B100" s="67">
+      <c r="F99" s="32"/>
+    </row>
+    <row r="100" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A100" s="68"/>
+      <c r="B100" s="31">
         <v>10</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="E100" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F100" s="69"/>
-    </row>
-    <row r="101" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="50"/>
-      <c r="B101" s="67">
-        <v>11</v>
-      </c>
-      <c r="C101" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="D101" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="E101" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F101" s="69"/>
-    </row>
-    <row r="102" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A102" s="50"/>
-      <c r="B102" s="67">
-        <v>12</v>
-      </c>
-      <c r="C102" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="D102" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="E102" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F102" s="69"/>
-    </row>
-    <row r="103" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A103" s="50"/>
-      <c r="B103" s="67">
-        <v>13</v>
-      </c>
-      <c r="C103" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="D103" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="E103" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F103" s="69"/>
-    </row>
-    <row r="104" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A104" s="50"/>
-      <c r="B104" s="67">
-        <v>14</v>
-      </c>
-      <c r="C104" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="D104" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="E104" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F104" s="69"/>
-    </row>
-    <row r="105" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A105" s="50"/>
-      <c r="B105" s="67">
-        <v>15</v>
-      </c>
-      <c r="C105" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="D105" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="E105" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F105" s="69"/>
-    </row>
-    <row r="106" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="51"/>
-      <c r="B106" s="67">
-        <v>16</v>
-      </c>
-      <c r="C106" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D106" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E106" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F106" s="69"/>
-    </row>
-    <row r="107" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A107" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="B107" s="67"/>
-      <c r="C107" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="D107" s="20"/>
-      <c r="E107" s="21"/>
-      <c r="F107" s="69"/>
-    </row>
-    <row r="108" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A108" s="50"/>
-      <c r="B108" s="67">
-        <v>1</v>
-      </c>
-      <c r="C108" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D108" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E108" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F108" s="69"/>
-    </row>
-    <row r="109" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="50"/>
-      <c r="B109" s="67">
-        <v>2</v>
-      </c>
-      <c r="C109" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D109" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E109" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F109" s="69"/>
-    </row>
-    <row r="110" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A110" s="50"/>
-      <c r="B110" s="67">
-        <v>3</v>
-      </c>
-      <c r="C110" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="D110" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="E110" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F110" s="69"/>
-    </row>
-    <row r="111" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A111" s="50"/>
-      <c r="B111" s="67">
-        <v>4</v>
-      </c>
-      <c r="C111" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="D111" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="E111" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F111" s="69"/>
-    </row>
-    <row r="112" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A112" s="50"/>
-      <c r="B112" s="67">
-        <v>5</v>
-      </c>
-      <c r="C112" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="D112" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="E112" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F112" s="69"/>
-    </row>
-    <row r="113" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A113" s="50"/>
-      <c r="B113" s="67">
-        <v>6</v>
-      </c>
-      <c r="C113" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="D113" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="E113" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F113" s="69"/>
-    </row>
-    <row r="114" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A114" s="50"/>
-      <c r="B114" s="67">
-        <v>7</v>
-      </c>
-      <c r="C114" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="D114" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="E114" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F114" s="69"/>
-    </row>
-    <row r="115" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A115" s="50"/>
-      <c r="B115" s="67">
-        <v>8</v>
-      </c>
-      <c r="C115" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="D115" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="E115" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F115" s="69"/>
-    </row>
-    <row r="116" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A116" s="50"/>
-      <c r="B116" s="67">
-        <v>9</v>
-      </c>
-      <c r="C116" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="D116" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="E116" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F116" s="69"/>
-    </row>
-    <row r="117" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A117" s="51"/>
-      <c r="B117" s="67">
-        <v>10</v>
-      </c>
-      <c r="C117" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D117" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E117" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F117" s="69"/>
-    </row>
-    <row r="118" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A118" s="68" t="s">
-        <v>117</v>
-      </c>
-      <c r="B118" s="67"/>
-      <c r="C118" s="65" t="s">
-        <v>119</v>
-      </c>
-      <c r="D118" s="20"/>
-      <c r="E118" s="21"/>
-      <c r="F118" s="69"/>
-    </row>
-    <row r="119" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A119" s="68"/>
-      <c r="B119" s="67">
-        <v>1</v>
-      </c>
-      <c r="C119" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D119" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E119" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F119" s="69"/>
-    </row>
-    <row r="120" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A120" s="68"/>
-      <c r="B120" s="67">
-        <v>2</v>
-      </c>
-      <c r="C120" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D120" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E120" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F120" s="69"/>
-    </row>
-    <row r="121" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="68"/>
-      <c r="B121" s="67">
-        <v>3</v>
-      </c>
-      <c r="C121" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="D121" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="E121" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F121" s="69"/>
-    </row>
-    <row r="122" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A122" s="68"/>
-      <c r="B122" s="67">
-        <v>4</v>
-      </c>
-      <c r="C122" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="D122" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="E122" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F122" s="69"/>
-    </row>
-    <row r="123" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A123" s="68"/>
-      <c r="B123" s="67">
-        <v>5</v>
-      </c>
-      <c r="C123" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="D123" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="E123" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F123" s="69"/>
-    </row>
-    <row r="124" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A124" s="68"/>
-      <c r="B124" s="67">
-        <v>6</v>
-      </c>
-      <c r="C124" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="D124" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="E124" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F124" s="69"/>
-    </row>
-    <row r="125" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A125" s="68"/>
-      <c r="B125" s="67">
-        <v>7</v>
-      </c>
-      <c r="C125" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="D125" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="E125" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F125" s="69"/>
-    </row>
-    <row r="126" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="68"/>
-      <c r="B126" s="67">
-        <v>8</v>
-      </c>
-      <c r="C126" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D126" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="E126" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F126" s="69"/>
-    </row>
-    <row r="127" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A127" s="68"/>
-      <c r="B127" s="67">
-        <v>9</v>
-      </c>
-      <c r="C127" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D127" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E127" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F127" s="69"/>
+      <c r="F100" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A90:A106"/>
-    <mergeCell ref="A107:A117"/>
-    <mergeCell ref="A118:A127"/>
+  <mergeCells count="16">
+    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="A80:A88"/>
+    <mergeCell ref="A90:A100"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A89:F89"/>
@@ -4103,12 +3612,10 @@
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A17:A28"/>
-    <mergeCell ref="A29:A36"/>
-    <mergeCell ref="A80:A88"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="выбрать результат" sqref="E3:E15 E17:E88 E90:E127" xr:uid="{6F5D13FD-EF26-4C7C-B5D7-88D2C9B196E5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="выбрать результат" sqref="E3:E15 E17:E88 E90:E100" xr:uid="{6F5D13FD-EF26-4C7C-B5D7-88D2C9B196E5}">
       <formula1>$AB$1:$AB$3</formula1>
     </dataValidation>
   </dataValidations>
@@ -4118,12 +3625,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4348,18 +3855,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D895C161-5F30-4256-BAD3-309A58746C18}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D61C0559-A3A8-404B-B3C9-59977EEF143B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4384,11 +3893,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D61C0559-A3A8-404B-B3C9-59977EEF143B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D895C161-5F30-4256-BAD3-309A58746C18}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/test_artifacts.xlsx
+++ b/test_artifacts.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF7548C-D348-445B-86B0-FD8C1F193D8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01650252-DE33-4E2D-A57E-4FAF5050A1D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="729" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="138">
   <si>
     <t>In Scope</t>
   </si>
@@ -234,9 +234,6 @@
     <t>Поле ввода пароля оставить пустым, в поле ввода  логина ввести значение</t>
   </si>
   <si>
-    <t>Обновление персональных данных обязательных полей</t>
-  </si>
-  <si>
     <t>Обновление персональных данных с некорректным email</t>
   </si>
   <si>
@@ -312,15 +309,9 @@
     <t>Открыть окно пользователя в правом верхнем углу страницы, кликнуть "Выход"</t>
   </si>
   <si>
-    <t>Обновить обязательные поля раздела "Основные"</t>
-  </si>
-  <si>
     <t xml:space="preserve">Отображается страница с обновленными обязательными полями </t>
   </si>
   <si>
-    <t>Ввести в поле ввода email "ghghgghhhghh"</t>
-  </si>
-  <si>
     <t>Отображается страница для редактирования персональных данных пользователя, под полем ввода email ошибка "Некорректный формат адреса электронной почты"</t>
   </si>
   <si>
@@ -424,6 +415,33 @@
   </si>
   <si>
     <t xml:space="preserve">Тестирование; оптимальное количество документации; предотвращение багов;  автоматизация </t>
+  </si>
+  <si>
+    <t>Обновить обязательное поле "Имя" раздела "Основные"</t>
+  </si>
+  <si>
+    <t>Обновить обязательное поле "Фамилия" раздела "Основные"</t>
+  </si>
+  <si>
+    <t>Обновить обязательное поле "Адрес электронной почты" раздела "Основные"</t>
+  </si>
+  <si>
+    <t>Ввести в поле ввода Адрес электронной почты "ghghgghhhghh"</t>
+  </si>
+  <si>
+    <t>Обновление персональных данных обязательного поля Адрес электронной почты</t>
+  </si>
+  <si>
+    <t>Обновление персональных данных обязательного поля Фамилия</t>
+  </si>
+  <si>
+    <t>Обновление персональных данных обязательного поля Имя</t>
+  </si>
+  <si>
+    <t>TC-14</t>
+  </si>
+  <si>
+    <t>TC-15</t>
   </si>
 </sst>
 </file>
@@ -1039,104 +1057,104 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="7" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="5" xfId="19" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="17" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="5" xfId="19" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="7" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1466,94 +1484,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="63"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="58" t="s">
+      <c r="E1" s="36"/>
+      <c r="F1" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="13">
         <v>44409</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="59" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="13">
         <v>44469</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="59" t="s">
-        <v>131</v>
-      </c>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="61" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="36" t="s">
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="46"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="4">
         <v>1</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="56"/>
+      <c r="F5" s="43"/>
       <c r="G5" s="5">
         <v>1</v>
       </c>
@@ -1568,15 +1586,15 @@
       <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="46"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="4">
         <v>2</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="54"/>
+      <c r="F6" s="45"/>
       <c r="G6" s="5">
         <v>2</v>
       </c>
@@ -1591,13 +1609,13 @@
       <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="41"/>
       <c r="D7" s="4">
         <v>3</v>
       </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="54"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="45"/>
       <c r="G7" s="5">
         <v>3</v>
       </c>
@@ -1608,96 +1626,96 @@
       <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="51" t="s">
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="52" t="s">
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="46"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="24">
         <v>1</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="35"/>
+      <c r="F9" s="51"/>
       <c r="G9" s="7">
         <v>1</v>
       </c>
-      <c r="H9" s="48" t="s">
+      <c r="H9" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="48"/>
+      <c r="I9" s="52"/>
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="46"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="41"/>
       <c r="D10" s="24">
         <v>2</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="35"/>
+      <c r="F10" s="51"/>
       <c r="G10" s="7">
         <v>2</v>
       </c>
-      <c r="H10" s="49" t="s">
+      <c r="H10" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="50"/>
+      <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="46"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="41"/>
       <c r="D11" s="24">
         <v>3</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="47"/>
+      <c r="F11" s="61"/>
       <c r="G11" s="7">
         <v>3</v>
       </c>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="46"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="24">
         <v>4</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
       <c r="G12" s="7">
         <v>4</v>
       </c>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -1708,133 +1726,133 @@
       <c r="D13" s="24">
         <v>5</v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
       <c r="G13" s="7">
         <v>5</v>
       </c>
-      <c r="H13" s="49"/>
-      <c r="I13" s="50"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="54"/>
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="37" t="s">
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="43" t="s">
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
     </row>
     <row r="15" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="33"/>
+      <c r="C15" s="56"/>
       <c r="D15" s="6">
         <v>1</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="41"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="58"/>
       <c r="G15" s="8">
         <v>1</v>
       </c>
-      <c r="H15" s="44" t="s">
+      <c r="H15" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="42"/>
+      <c r="I15" s="60"/>
     </row>
     <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="33"/>
+      <c r="C16" s="56"/>
       <c r="D16" s="6">
         <v>2</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="41"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="58"/>
       <c r="G16" s="8">
         <v>2</v>
       </c>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
     </row>
     <row r="17" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>3</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
       <c r="D17" s="6">
         <v>3</v>
       </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="41"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="58"/>
       <c r="G17" s="8">
         <v>3</v>
       </c>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>4</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="6">
         <v>4</v>
       </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="41"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="58"/>
       <c r="G18" s="8">
         <v>4</v>
       </c>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
     </row>
     <row r="19" spans="1:9" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>5</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="39" t="s">
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="38" t="s">
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
     </row>
     <row r="20" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>6</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
       <c r="D20" s="9">
         <v>1</v>
       </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
       <c r="G20" s="10">
         <v>1</v>
       </c>
@@ -1849,13 +1867,13 @@
       <c r="A21" s="5">
         <v>7</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
       <c r="D21" s="9">
         <v>2</v>
       </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
       <c r="G21" s="10">
         <v>2</v>
       </c>
@@ -1870,13 +1888,13 @@
       <c r="A22" s="5">
         <v>8</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
       <c r="D22" s="9">
         <v>3</v>
       </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
       <c r="G22" s="10">
         <v>3</v>
       </c>
@@ -1891,13 +1909,13 @@
       <c r="A23" s="5">
         <v>9</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
       <c r="D23" s="9">
         <v>4</v>
       </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
       <c r="G23" s="10">
         <v>4</v>
       </c>
@@ -1912,13 +1930,13 @@
       <c r="A24" s="5">
         <v>10</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
       <c r="D24" s="9">
         <v>5</v>
       </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
       <c r="G24" s="10">
         <v>5</v>
       </c>
@@ -1933,13 +1951,13 @@
       <c r="A25" s="5">
         <v>11</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
       <c r="D25" s="9">
         <v>6</v>
       </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
       <c r="G25" s="10">
         <v>6</v>
       </c>
@@ -1948,58 +1966,6 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="E13:F13"/>
@@ -2013,6 +1979,58 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H15" r:id="rId1" xr:uid="{1A6BB819-77E4-4AC5-8ED4-D2BD98FF2BB8}"/>
@@ -2024,7 +2042,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95AE4D5D-04C3-49E8-9C92-AD81F13EDFEF}">
-  <dimension ref="A1:AB100"/>
+  <dimension ref="A1:AB116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2042,7 +2060,7 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="69" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -2070,7 +2088,7 @@
         <v>42</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AB2" s="26" t="s">
         <v>44</v>
@@ -2276,7 +2294,7 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="71" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B16" s="72"/>
       <c r="C16" s="72"/>
@@ -2293,7 +2311,7 @@
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="21"/>
@@ -2337,10 +2355,10 @@
         <v>3</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>43</v>
@@ -2353,10 +2371,10 @@
         <v>4</v>
       </c>
       <c r="C21" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="20" t="s">
         <v>82</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>83</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>43</v>
@@ -2369,10 +2387,10 @@
         <v>5</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E22" s="21" t="s">
         <v>43</v>
@@ -2385,10 +2403,10 @@
         <v>6</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E23" s="21" t="s">
         <v>43</v>
@@ -2401,10 +2419,10 @@
         <v>7</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E24" s="21" t="s">
         <v>43</v>
@@ -2417,10 +2435,10 @@
         <v>8</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E25" s="21" t="s">
         <v>43</v>
@@ -2433,10 +2451,10 @@
         <v>9</v>
       </c>
       <c r="C26" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="20" t="s">
         <v>88</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>89</v>
       </c>
       <c r="E26" s="21" t="s">
         <v>43</v>
@@ -2449,10 +2467,10 @@
         <v>10</v>
       </c>
       <c r="C27" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="20" t="s">
         <v>90</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>91</v>
       </c>
       <c r="E27" s="21" t="s">
         <v>43</v>
@@ -2465,7 +2483,7 @@
         <v>11</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D28" s="20" t="s">
         <v>59</v>
@@ -2481,7 +2499,7 @@
       </c>
       <c r="B29" s="21"/>
       <c r="C29" s="29" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="D29" s="20"/>
       <c r="E29" s="21"/>
@@ -2525,10 +2543,10 @@
         <v>3</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E32" s="21" t="s">
         <v>43</v>
@@ -2541,10 +2559,10 @@
         <v>4</v>
       </c>
       <c r="C33" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="20" t="s">
         <v>82</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>83</v>
       </c>
       <c r="E33" s="21" t="s">
         <v>43</v>
@@ -2557,10 +2575,10 @@
         <v>5</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E34" s="21" t="s">
         <v>43</v>
@@ -2573,10 +2591,10 @@
         <v>6</v>
       </c>
       <c r="C35" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="20" t="s">
         <v>90</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>91</v>
       </c>
       <c r="E35" s="21" t="s">
         <v>43</v>
@@ -2589,7 +2607,7 @@
         <v>7</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="20" t="s">
         <v>59</v>
@@ -2605,7 +2623,7 @@
       </c>
       <c r="B37" s="21"/>
       <c r="C37" s="29" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="D37" s="20"/>
       <c r="E37" s="21"/>
@@ -2649,10 +2667,10 @@
         <v>3</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E40" s="21" t="s">
         <v>43</v>
@@ -2665,10 +2683,10 @@
         <v>4</v>
       </c>
       <c r="C41" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="20" t="s">
         <v>82</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>83</v>
       </c>
       <c r="E41" s="21" t="s">
         <v>43</v>
@@ -2681,26 +2699,26 @@
         <v>5</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E42" s="21" t="s">
         <v>43</v>
       </c>
       <c r="F42" s="32"/>
     </row>
-    <row r="43" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A43" s="67"/>
       <c r="B43" s="21">
         <v>6</v>
       </c>
       <c r="C43" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="20" t="s">
         <v>90</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>97</v>
       </c>
       <c r="E43" s="21" t="s">
         <v>43</v>
@@ -2713,7 +2731,7 @@
         <v>7</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D44" s="20" t="s">
         <v>59</v>
@@ -2723,13 +2741,13 @@
       </c>
       <c r="F44" s="32"/>
     </row>
-    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A45" s="66" t="s">
         <v>56</v>
       </c>
       <c r="B45" s="21"/>
       <c r="C45" s="29" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="D45" s="20"/>
       <c r="E45" s="21"/>
@@ -2773,10 +2791,10 @@
         <v>3</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E48" s="21" t="s">
         <v>43</v>
@@ -2789,10 +2807,10 @@
         <v>4</v>
       </c>
       <c r="C49" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" s="20" t="s">
         <v>82</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>83</v>
       </c>
       <c r="E49" s="21" t="s">
         <v>43</v>
@@ -2805,10 +2823,10 @@
         <v>5</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E50" s="21" t="s">
         <v>43</v>
@@ -2821,72 +2839,70 @@
         <v>6</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="E51" s="21" t="s">
         <v>43</v>
       </c>
       <c r="F51" s="32"/>
     </row>
-    <row r="52" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="67"/>
+    <row r="52" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="68"/>
       <c r="B52" s="21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F52" s="20" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="68"/>
-      <c r="B53" s="21">
-        <v>9</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D53" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" s="32"/>
+    </row>
+    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A53" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" s="21"/>
+      <c r="C53" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" s="20"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="32"/>
+    </row>
+    <row r="54" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="67"/>
+      <c r="B54" s="21">
+        <v>1</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E53" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F53" s="32"/>
-    </row>
-    <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A54" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="B54" s="31"/>
-      <c r="C54" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D54" s="20"/>
-      <c r="E54" s="21"/>
+      <c r="E54" s="21" t="s">
+        <v>43</v>
+      </c>
       <c r="F54" s="32"/>
     </row>
-    <row r="55" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A55" s="67"/>
       <c r="B55" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E55" s="21" t="s">
         <v>43</v>
@@ -2896,13 +2912,13 @@
     <row r="56" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A56" s="67"/>
       <c r="B56" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="E56" s="21" t="s">
         <v>43</v>
@@ -2912,13 +2928,13 @@
     <row r="57" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="67"/>
       <c r="B57" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E57" s="21" t="s">
         <v>43</v>
@@ -2928,29 +2944,29 @@
     <row r="58" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A58" s="67"/>
       <c r="B58" s="21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E58" s="21" t="s">
         <v>43</v>
       </c>
       <c r="F58" s="32"/>
     </row>
-    <row r="59" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A59" s="67"/>
       <c r="B59" s="21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E59" s="21" t="s">
         <v>43</v>
@@ -2958,59 +2974,59 @@
       <c r="F59" s="32"/>
     </row>
     <row r="60" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="67"/>
+      <c r="A60" s="68"/>
       <c r="B60" s="21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E60" s="21" t="s">
         <v>43</v>
       </c>
       <c r="F60" s="32"/>
     </row>
-    <row r="61" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="68"/>
-      <c r="B61" s="21">
-        <v>7</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D61" s="20" t="s">
+    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A61" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" s="21"/>
+      <c r="C61" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D61" s="20"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="32"/>
+    </row>
+    <row r="62" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A62" s="67"/>
+      <c r="B62" s="21">
+        <v>1</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D62" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E61" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F61" s="32"/>
-    </row>
-    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="A62" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="B62" s="31"/>
-      <c r="C62" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="D62" s="20"/>
-      <c r="E62" s="21"/>
+      <c r="E62" s="21" t="s">
+        <v>43</v>
+      </c>
       <c r="F62" s="32"/>
     </row>
-    <row r="63" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A63" s="67"/>
       <c r="B63" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E63" s="21" t="s">
         <v>43</v>
@@ -3020,13 +3036,13 @@
     <row r="64" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A64" s="67"/>
       <c r="B64" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="E64" s="21" t="s">
         <v>43</v>
@@ -3036,13 +3052,13 @@
     <row r="65" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A65" s="67"/>
       <c r="B65" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E65" s="21" t="s">
         <v>43</v>
@@ -3052,13 +3068,13 @@
     <row r="66" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A66" s="67"/>
       <c r="B66" s="21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="E66" s="21" t="s">
         <v>43</v>
@@ -3068,89 +3084,91 @@
     <row r="67" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A67" s="67"/>
       <c r="B67" s="21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E67" s="21" t="s">
         <v>43</v>
       </c>
       <c r="F67" s="32"/>
     </row>
-    <row r="68" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A68" s="67"/>
       <c r="B68" s="21">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F68" s="32"/>
+        <v>44</v>
+      </c>
+      <c r="F68" s="20" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="69" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="67"/>
+      <c r="A69" s="68"/>
       <c r="B69" s="21">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E69" s="21" t="s">
         <v>43</v>
       </c>
       <c r="F69" s="32"/>
     </row>
-    <row r="70" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="68"/>
-      <c r="B70" s="21">
-        <v>8</v>
-      </c>
-      <c r="C70" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D70" s="20" t="s">
+    <row r="70" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A70" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" s="31"/>
+      <c r="C70" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D70" s="20"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="32"/>
+    </row>
+    <row r="71" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A71" s="67"/>
+      <c r="B71" s="21">
+        <v>1</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D71" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E70" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F70" s="32"/>
-    </row>
-    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="A71" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71" s="31"/>
-      <c r="C71" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="D71" s="20"/>
-      <c r="E71" s="21"/>
+      <c r="E71" s="21" t="s">
+        <v>43</v>
+      </c>
       <c r="F71" s="32"/>
     </row>
-    <row r="72" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A72" s="67"/>
-      <c r="B72" s="31">
-        <v>1</v>
+      <c r="B72" s="21">
+        <v>2</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E72" s="21" t="s">
         <v>43</v>
@@ -3159,14 +3177,14 @@
     </row>
     <row r="73" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A73" s="67"/>
-      <c r="B73" s="31">
-        <v>2</v>
+      <c r="B73" s="21">
+        <v>3</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="E73" s="21" t="s">
         <v>43</v>
@@ -3175,91 +3193,87 @@
     </row>
     <row r="74" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A74" s="67"/>
-      <c r="B74" s="31">
-        <v>3</v>
+      <c r="B74" s="21">
+        <v>4</v>
       </c>
       <c r="C74" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E74" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" s="32"/>
+    </row>
+    <row r="75" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A75" s="67"/>
+      <c r="B75" s="21">
+        <v>5</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D75" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E75" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" s="32"/>
+    </row>
+    <row r="76" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="67"/>
+      <c r="B76" s="21">
+        <v>6</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E76" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" s="32"/>
+    </row>
+    <row r="77" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="68"/>
+      <c r="B77" s="21">
+        <v>7</v>
+      </c>
+      <c r="C77" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="D74" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E74" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F74" s="32"/>
-    </row>
-    <row r="75" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="67"/>
-      <c r="B75" s="31">
-        <v>4</v>
-      </c>
-      <c r="C75" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D75" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="E75" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F75" s="32"/>
-    </row>
-    <row r="76" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A76" s="67"/>
-      <c r="B76" s="31">
-        <v>5</v>
-      </c>
-      <c r="C76" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D76" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="E76" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F76" s="32"/>
-    </row>
-    <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A77" s="67"/>
-      <c r="B77" s="31">
-        <v>6</v>
-      </c>
-      <c r="C77" s="20" t="s">
-        <v>87</v>
-      </c>
       <c r="D77" s="20" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="E77" s="21" t="s">
         <v>43</v>
       </c>
       <c r="F77" s="32"/>
     </row>
-    <row r="78" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="67"/>
-      <c r="B78" s="31">
-        <v>7</v>
-      </c>
-      <c r="C78" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D78" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="E78" s="21" t="s">
-        <v>43</v>
-      </c>
+    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A78" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B78" s="31"/>
+      <c r="C78" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D78" s="20"/>
+      <c r="E78" s="21"/>
       <c r="F78" s="32"/>
     </row>
-    <row r="79" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="68"/>
-      <c r="B79" s="31">
-        <v>8</v>
+    <row r="79" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A79" s="67"/>
+      <c r="B79" s="21">
+        <v>1</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="D79" s="20" t="s">
         <v>59</v>
@@ -3269,137 +3283,137 @@
       </c>
       <c r="F79" s="32"/>
     </row>
-    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="A80" s="66" t="s">
+    <row r="80" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="67"/>
+      <c r="B80" s="21">
+        <v>2</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D80" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E80" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" s="32"/>
+    </row>
+    <row r="81" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="67"/>
+      <c r="B81" s="21">
+        <v>3</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D81" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E81" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" s="32"/>
+    </row>
+    <row r="82" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="67"/>
+      <c r="B82" s="21">
+        <v>4</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D82" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E82" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" s="32"/>
+    </row>
+    <row r="83" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A83" s="67"/>
+      <c r="B83" s="21">
+        <v>5</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D83" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E83" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" s="32"/>
+    </row>
+    <row r="84" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="67"/>
+      <c r="B84" s="21">
+        <v>6</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D84" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E84" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" s="32"/>
+    </row>
+    <row r="85" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A85" s="67"/>
+      <c r="B85" s="21">
+        <v>7</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D85" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E85" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" s="32"/>
+    </row>
+    <row r="86" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="68"/>
+      <c r="B86" s="21">
+        <v>8</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D86" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E86" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" s="32"/>
+    </row>
+    <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A87" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="B80" s="31"/>
-      <c r="C80" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="D80" s="20"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="32"/>
-    </row>
-    <row r="81" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="67"/>
-      <c r="B81" s="31">
+      <c r="B87" s="31"/>
+      <c r="C87" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D87" s="20"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="32"/>
+    </row>
+    <row r="88" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A88" s="67"/>
+      <c r="B88" s="31">
         <v>1</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="C88" s="20" t="s">
         <v>57</v>
-      </c>
-      <c r="D81" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E81" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F81" s="32"/>
-    </row>
-    <row r="82" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="67"/>
-      <c r="B82" s="31">
-        <v>2</v>
-      </c>
-      <c r="C82" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D82" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E82" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F82" s="32"/>
-    </row>
-    <row r="83" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="67"/>
-      <c r="B83" s="31">
-        <v>3</v>
-      </c>
-      <c r="C83" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="D83" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E83" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F83" s="32"/>
-    </row>
-    <row r="84" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="67"/>
-      <c r="B84" s="31">
-        <v>4</v>
-      </c>
-      <c r="C84" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D84" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="E84" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F84" s="32"/>
-    </row>
-    <row r="85" spans="1:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="A85" s="67"/>
-      <c r="B85" s="31">
-        <v>5</v>
-      </c>
-      <c r="C85" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="D85" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="E85" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F85" s="32"/>
-    </row>
-    <row r="86" spans="1:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="A86" s="67"/>
-      <c r="B86" s="31">
-        <v>6</v>
-      </c>
-      <c r="C86" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D86" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E86" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F86" s="32"/>
-    </row>
-    <row r="87" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="67"/>
-      <c r="B87" s="31">
-        <v>7</v>
-      </c>
-      <c r="C87" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D87" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="E87" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F87" s="32"/>
-    </row>
-    <row r="88" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="68"/>
-      <c r="B88" s="31">
-        <v>8</v>
-      </c>
-      <c r="C88" s="20" t="s">
-        <v>93</v>
       </c>
       <c r="D88" s="20" t="s">
         <v>59</v>
@@ -3409,204 +3423,458 @@
       </c>
       <c r="F88" s="32"/>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A89" s="71" t="s">
-        <v>113</v>
-      </c>
-      <c r="B89" s="72"/>
-      <c r="C89" s="72"/>
-      <c r="D89" s="72"/>
-      <c r="E89" s="72"/>
-      <c r="F89" s="73"/>
-      <c r="AB89" s="25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="90" spans="1:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="A90" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="B90" s="31"/>
-      <c r="C90" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="D90" s="20"/>
-      <c r="E90" s="21"/>
+    <row r="89" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A89" s="67"/>
+      <c r="B89" s="31">
+        <v>2</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D89" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E89" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" s="32"/>
+    </row>
+    <row r="90" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A90" s="67"/>
+      <c r="B90" s="31">
+        <v>3</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D90" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E90" s="21" t="s">
+        <v>43</v>
+      </c>
       <c r="F90" s="32"/>
     </row>
-    <row r="91" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A91" s="67"/>
       <c r="B91" s="31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="D91" s="20" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="E91" s="21" t="s">
         <v>43</v>
       </c>
       <c r="F91" s="32"/>
     </row>
-    <row r="92" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="67"/>
       <c r="B92" s="31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="D92" s="20" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="E92" s="21" t="s">
         <v>43</v>
       </c>
       <c r="F92" s="32"/>
     </row>
-    <row r="93" spans="1:28" ht="15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="67"/>
       <c r="B93" s="31">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="D93" s="20" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E93" s="21" t="s">
         <v>43</v>
       </c>
       <c r="F93" s="32"/>
     </row>
-    <row r="94" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A94" s="67"/>
       <c r="B94" s="31">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="D94" s="20" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="E94" s="21" t="s">
         <v>43</v>
       </c>
       <c r="F94" s="32"/>
     </row>
-    <row r="95" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A95" s="67"/>
+    <row r="95" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A95" s="68"/>
       <c r="B95" s="31">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="D95" s="20" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="E95" s="21" t="s">
         <v>43</v>
       </c>
       <c r="F95" s="32"/>
     </row>
-    <row r="96" spans="1:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="A96" s="67"/>
-      <c r="B96" s="31">
-        <v>6</v>
-      </c>
-      <c r="C96" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="D96" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="E96" s="21" t="s">
-        <v>43</v>
-      </c>
+    <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A96" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="B96" s="31"/>
+      <c r="C96" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D96" s="20"/>
+      <c r="E96" s="21"/>
       <c r="F96" s="32"/>
     </row>
-    <row r="97" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A97" s="67"/>
       <c r="B97" s="31">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>124</v>
+        <v>57</v>
       </c>
       <c r="D97" s="20" t="s">
-        <v>128</v>
+        <v>59</v>
       </c>
       <c r="E97" s="21" t="s">
         <v>43</v>
       </c>
       <c r="F97" s="32"/>
     </row>
-    <row r="98" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A98" s="67"/>
       <c r="B98" s="31">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="D98" s="20" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="E98" s="21" t="s">
         <v>43</v>
       </c>
       <c r="F98" s="32"/>
     </row>
-    <row r="99" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A99" s="67"/>
       <c r="B99" s="31">
+        <v>3</v>
+      </c>
+      <c r="C99" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D99" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E99" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F99" s="32"/>
+    </row>
+    <row r="100" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A100" s="67"/>
+      <c r="B100" s="31">
+        <v>4</v>
+      </c>
+      <c r="C100" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D100" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E100" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F100" s="32"/>
+    </row>
+    <row r="101" spans="1:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="A101" s="67"/>
+      <c r="B101" s="31">
+        <v>5</v>
+      </c>
+      <c r="C101" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D101" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E101" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F101" s="32"/>
+    </row>
+    <row r="102" spans="1:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="A102" s="67"/>
+      <c r="B102" s="31">
+        <v>6</v>
+      </c>
+      <c r="C102" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D102" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E102" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F102" s="32"/>
+    </row>
+    <row r="103" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A103" s="67"/>
+      <c r="B103" s="31">
+        <v>7</v>
+      </c>
+      <c r="C103" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D103" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E103" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F103" s="32"/>
+    </row>
+    <row r="104" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A104" s="68"/>
+      <c r="B104" s="31">
+        <v>8</v>
+      </c>
+      <c r="C104" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D104" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E104" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F104" s="32"/>
+    </row>
+    <row r="105" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A105" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="B105" s="72"/>
+      <c r="C105" s="72"/>
+      <c r="D105" s="72"/>
+      <c r="E105" s="72"/>
+      <c r="F105" s="73"/>
+      <c r="AB105" s="25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="A106" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="B106" s="31"/>
+      <c r="C106" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D106" s="20"/>
+      <c r="E106" s="21"/>
+      <c r="F106" s="32"/>
+    </row>
+    <row r="107" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A107" s="67"/>
+      <c r="B107" s="31">
+        <v>1</v>
+      </c>
+      <c r="C107" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D107" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E107" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F107" s="32"/>
+    </row>
+    <row r="108" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A108" s="67"/>
+      <c r="B108" s="31">
+        <v>2</v>
+      </c>
+      <c r="C108" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D108" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E108" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F108" s="32"/>
+    </row>
+    <row r="109" spans="1:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="A109" s="67"/>
+      <c r="B109" s="31">
+        <v>3</v>
+      </c>
+      <c r="C109" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D109" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E109" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F109" s="32"/>
+    </row>
+    <row r="110" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A110" s="67"/>
+      <c r="B110" s="31">
+        <v>4</v>
+      </c>
+      <c r="C110" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D110" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E110" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F110" s="32"/>
+    </row>
+    <row r="111" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A111" s="67"/>
+      <c r="B111" s="31">
+        <v>5</v>
+      </c>
+      <c r="C111" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D111" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E111" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F111" s="32"/>
+    </row>
+    <row r="112" spans="1:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="A112" s="67"/>
+      <c r="B112" s="31">
+        <v>6</v>
+      </c>
+      <c r="C112" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D112" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E112" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F112" s="32"/>
+    </row>
+    <row r="113" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A113" s="67"/>
+      <c r="B113" s="31">
+        <v>7</v>
+      </c>
+      <c r="C113" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D113" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E113" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F113" s="32"/>
+    </row>
+    <row r="114" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A114" s="67"/>
+      <c r="B114" s="31">
+        <v>8</v>
+      </c>
+      <c r="C114" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D114" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E114" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F114" s="32"/>
+    </row>
+    <row r="115" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A115" s="67"/>
+      <c r="B115" s="31">
         <v>9</v>
       </c>
-      <c r="C99" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="D99" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="E99" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F99" s="32"/>
-    </row>
-    <row r="100" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="68"/>
-      <c r="B100" s="31">
+      <c r="C115" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D115" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E115" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F115" s="32"/>
+    </row>
+    <row r="116" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A116" s="68"/>
+      <c r="B116" s="31">
         <v>10</v>
       </c>
-      <c r="C100" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D100" s="20" t="s">
+      <c r="C116" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D116" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E100" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F100" s="32"/>
+      <c r="E116" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F116" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="18">
+    <mergeCell ref="A37:A44"/>
+    <mergeCell ref="A45:A52"/>
     <mergeCell ref="A29:A36"/>
-    <mergeCell ref="A80:A88"/>
-    <mergeCell ref="A90:A100"/>
+    <mergeCell ref="A96:A104"/>
+    <mergeCell ref="A106:A116"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="A37:A44"/>
-    <mergeCell ref="A45:A53"/>
-    <mergeCell ref="A54:A61"/>
-    <mergeCell ref="A62:A70"/>
-    <mergeCell ref="A71:A79"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="A53:A60"/>
+    <mergeCell ref="A61:A69"/>
+    <mergeCell ref="A70:A77"/>
+    <mergeCell ref="A78:A86"/>
+    <mergeCell ref="A87:A95"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
@@ -3615,7 +3883,7 @@
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="выбрать результат" sqref="E3:E15 E17:E88 E90:E100" xr:uid="{6F5D13FD-EF26-4C7C-B5D7-88D2C9B196E5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="выбрать результат" sqref="E3:E15 E106:E116 E17:E104" xr:uid="{6F5D13FD-EF26-4C7C-B5D7-88D2C9B196E5}">
       <formula1>$AB$1:$AB$3</formula1>
     </dataValidation>
   </dataValidations>
@@ -3625,12 +3893,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3855,20 +4123,18 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D61C0559-A3A8-404B-B3C9-59977EEF143B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D895C161-5F30-4256-BAD3-309A58746C18}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3893,9 +4159,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D895C161-5F30-4256-BAD3-309A58746C18}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D61C0559-A3A8-404B-B3C9-59977EEF143B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>